--- a/BioSynthHits.xlsx
+++ b/BioSynthHits.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N-Methyl-D-glucamine</t>
+          <t>N-Methyl-D-glucamine HCl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,29 +482,44 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9976447286627793</v>
+        <v>0.999141865568012</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D-Glucamine</t>
+          <t>N-Methyl-D-glucamine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C([C@@H]([C@H]([C@@H]([C@@H](CO)O)O)O)O)N</t>
+          <t>CNC[C@@H]([C@H]([C@@H]([C@@H](CO)O)O)O)O</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>0.9976447286627793</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D-Glucamine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C([C@@H]([C@H]([C@@H]([C@@H](CO)O)O)O)O)N</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>0.957803340764368</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>D-Leucrose</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>C1[C@H]([C@H]([C@@H]([C@](O1)(CO)O)O)O)O[C@@H]2[C@@H]([C@H]([C@@H]([C@H](O2)CO)O)O)O</t>
         </is>
